--- a/data/timeseries.xlsx
+++ b/data/timeseries.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944EE5A4-2D8B-42C7-8A63-F12D37A8FBA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3055F5B-2B22-41A4-92A8-93598BC95B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="macro-steel" sheetId="2" r:id="rId1"/>
